--- a/YogiApekshit/App_Data/Pravesh-1 FAQ.xlsx
+++ b/YogiApekshit/App_Data/Pravesh-1 FAQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="P-1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="252">
   <si>
     <t xml:space="preserve">±‰÷ﬂHÎ˘ </t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>ﬂÎ…Î ﬂHÎ⁄ËÎÿﬂ ÁËÎﬁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">≠.1 </t>
-  </si>
-  <si>
-    <t>ﬁÌ«ı ±Î’ı·Î ±‰÷ﬂHÎ˘ ¿˘HÎ, ¿˘ﬁı ±ﬁı ¿uÎﬂı ¿Ëı »ı ÷ı ·¬˘. (¿&lt;· √HÎ — 9)</t>
   </si>
   <si>
     <t>’ﬂÌZÎÎ</t>
@@ -581,6 +575,231 @@
   </si>
   <si>
     <t>Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ëı ÿı‰ ! ±‹ÎﬂÎ‹Î_ ‰ˆﬂÎB›ﬁÎ ±ﬁı ÷’ﬁÎ √&lt;HÎ˘ ±Î’˘. </t>
+  </si>
+  <si>
+    <t>(14/25)</t>
+  </si>
+  <si>
+    <t>›˘√Ì±˘ ±ﬁı ‹&lt;Ïﬁ±˘</t>
+  </si>
+  <si>
+    <t>ﬁÌ·¿oÃ‰HÎaﬁı</t>
+  </si>
+  <si>
+    <t>’&lt;·ËÎl‹‹Î_ ±Î¿v_ ÷’ ¿ﬂ÷Î ﬁÌ·¿oÃ‰HÎaﬁı …Îı¥ﬁı ÷ı±˘ ’˛Î◊˝ﬁÎ ¿ﬂ÷Î_ ¿Ëı »ı.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‹Î, ÿÒ‘ ±˙ﬂ ¤Î÷ ·Î‰˘. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(36/69) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﬁÌ·¿oÃ‰HÎa </t>
+  </si>
+  <si>
+    <t>ﬁÎﬁÌ⁄Îﬁı</t>
+  </si>
+  <si>
+    <t>ﬁÌ·¿oÃ‰HÎa ¿ÎÂÌÿÎÁﬁÎ CÎıﬂ …‹‰Î √›Î. I›Îﬂı ﬁÎﬁÌ⁄Î ⁄˛ÎõHÎ˘ ’ÎÁı ·ÎÕ&lt; ·ı‰Î √›Î_ I›Îﬂı ⁄˛ÎõHÎ˘±ı ﬁˆ‰ız ﬁ◊Ì ◊›&lt;_ ¿ËÌ ·ÎÕ&lt; ±Î’‰ÎﬁÌ ﬁÎ ’ÎÕÌ I›Îﬂı ‰HÎa ¿Ëı »ı.</t>
+  </si>
+  <si>
+    <t>±Î…ı ÷˘ Ë‰ı ¬ı÷ﬂı …‰Îﬁ&lt;_ … ﬁ◊Ì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Õ˘ÂÌ‹Î </t>
+  </si>
+  <si>
+    <t>¤√‰ÎﬁÿÎÁﬁı</t>
+  </si>
+  <si>
+    <t>⁄’˘ﬂı CÎﬂı …‹‰Î ±Î‰ı·Î ¤√‰ÎﬁÿÎÁﬁı ¤√‰ÎﬁﬁÌ Â˘‘‹Î_ …‰Î ‹ÎÀı ¿Ëı »ı, I›Îﬂı</t>
+  </si>
+  <si>
+    <t>(31/57-58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">÷ı·√Ì ⁄˛ÎõHÎﬁ&lt;_ ÂﬂÌﬂ ¿Î‚&lt;_ ±ﬁı ¿ÿw’&lt;_ ◊¥ √›&lt;. </t>
+  </si>
+  <si>
+    <t>(19/34)_</t>
+  </si>
+  <si>
+    <t>÷ı·_√Ì ⁄˛ÎõHÎı ·˘¤‹Î_ ﬁı ·˘¤‹Î_ ﬂÎ…Î ’ÎÁı◊Ì ËÎ◊Ì ±ﬁı ¿Î‚’&lt;vÊﬁ&lt;_ ÿÎﬁ ·Ì‘&lt;_. ›˘B›÷Î Ï‰ﬁÎ ±ﬁı ·˘¤◊Ì ·Ì‘ı·Î ÿÎﬁﬁı ·Ì‘ı ÷ıﬁ&lt;_ ÂﬂÌﬂ ¿Î‚&lt;_ ±ﬁı ¿ÿw’&lt;_ ◊¥ √›&lt;_.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﬁÌ·¿oÃ‰HÎa±ı Áı‰¿ﬂÎ‹ﬁ˘ Á_√ »˘ÕÌ ÿÌ‘˘. </t>
+  </si>
+  <si>
+    <t>(30/56)</t>
+  </si>
+  <si>
+    <t>Áı‰¿ﬂÎ‹ ﬁÌ·¿oÃ‰HÎaﬁÌ ¿Î_¥ ¬⁄ﬂ ﬁ ﬂÎ¬÷˘. Œ@÷ √&lt;·Î‹ﬁÌ …ı‹ ¿Î‹ ¿ﬂÎ‰÷˘. …ı ÁÎﬂÎ ¿Î›˝ﬁÌ ¿ÿﬂ ﬁ ¿ﬂı, Áı‰¿ ’ÎÁı «ÒÁÌ «ÒÁÌﬁı ¿Î‹ ·ı, ÷ıﬁÎ_ ±Lﬁ‰VhÎﬁÌ ¬⁄ﬂ ﬁ ﬂÎ¬ı, ÷ı ¿Ú÷CﬁÌ ¿Ëı‰Î›. ¿Ú÷CﬁÌ ‹ÎHÎÁ ‹ËÎ’Î’Ì √HÎÎ›. Áı‰¿ﬂÎ‹ ±ı‰˘ ¿Ú÷CﬁÌ Ë˘‰Î◊Ì ﬁÌ·¿oÃı ÷ıﬁ˘ Á_√ »˘ÕÌ ÿÌ‘˘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﬂÎ‹Îﬁ_ÿ V‰Î‹Ì lÌ¿ÚWHÎﬁÌ ¤„@÷ﬁ˘ ઉ’ÿıÂ ±Î’‰Î ·ÎB›Î. </t>
+  </si>
+  <si>
+    <t>¤√‰Îﬁ lÌ¿ÚWHÎı ﬂÎ‹Îﬁ_ÿ V‰Î‹Ìﬁı V‰Mﬁ‹Î_ ÿÂ˝ﬁ ±ÎM›Î_ ±ﬁı ﬂÎ‹Îﬁ&lt;…Î«Î›˝ı V‰Mﬁ‹Î_ ÷ı‹ﬁı ‰ˆWHÎ‰Ì ÿÌZÎÎ ±Î’Ì, ‰ˆWHÎ‰‘‹˝ Œı·Î‰‰ÎﬁÌ ±ﬁı ÁÎ¿Îﬂ ¤√‰ÎﬁﬁÌ ¤„@÷ﬁ˘ ≠«Îﬂ ¿ﬂ‰ÎﬁÌ ±ÎiÎÎ ±Î’Ì. lÌ¿ÚWHÎ ¤√‰Îﬁı ¿èÎ&lt;_ — Ë&lt;_ ÁÎZÎÎ÷˚ ’˘÷ı M≤J‰Ì ’ﬂ …L‹ ·¥ﬁı ’˛√À ◊¥, ±ﬁ_÷ ∞‰˘ﬁ˘ ઉ©Îﬂ ¿ﬂÌÂ ±ﬁı ÷‹ﬁı ‹‚ÌÂ. I›Îﬂ◊Ì ﬂÎ‹Îﬁ_ÿ V‰Î‹Ì lÌ¿ÚWHÎﬁÌ ¤„@÷ﬁ˘ ઉ’ÿıÂ ±Î’‰Î ·ÎB›Î.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﬂÎ‹Îﬁ_ÿ V‰Î‹Ì±ı ÁË…Îﬁ_ÿ V‰Î‹Ìﬁı ‘‹˝‘&lt;ﬂÎ @›Î_ ±ﬁı @›Îﬂı Á˘Ó’Ì ? </t>
+  </si>
+  <si>
+    <t>(55/109)</t>
+  </si>
+  <si>
+    <t>ﬂÎ‹Îﬁ_ÿ V‰Î‹Ì±ı ÁË…Îﬁ_ÿ V‰Î‹Ìﬁı ‘‹˝‘&lt;ﬂÎ …ı÷’&lt;ﬂ‹Î_ Á_‰÷ 1858ﬁÌ ¿ÎÏ÷˝¿ Á&lt;ÿ ±ı¿ÎÿÂÌ±ı (’˛⁄˘Ï‘ﬁÌ) Á˘Ó’Ì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‰_ÂÌ’&lt;ﬂﬁÌ ¿&lt;_‰ﬂÌ±˘ﬁÎ_ ﬁÎ‹ …HÎÎ‰˘. </t>
+  </si>
+  <si>
+    <t>(10/17)</t>
+  </si>
+  <si>
+    <t>‰_ÂÌ’&lt;ﬂﬁÌ ¿&lt;_‰ﬂÌ±˘ﬁÎ ﬁÎ‹ ¥·Î ±ﬁı Á&lt;ÂÌ·Î Ë÷Ì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﬁÌ·¿oÃ‰HÎaﬁÎ ±ÎÂÌ‰Î˝ÿ◊Ì ﬂ÷Î⁄ÏÂ›Îﬁ˘ …L‹ ¿›Î √Î‹‹Î_ ◊›˘ ? </t>
+  </si>
+  <si>
+    <t>(29/54)</t>
+  </si>
+  <si>
+    <t>ﬁÌ·¿oÃ‰HÎaﬁÎ ±ÎÂÌ‰Î˝ÿ◊Ì ﬂ÷Î⁄ÏÂ›Îﬁ˘ …L‹ …ı÷’&lt;ﬂ √Î‹‹Î_ ◊›˘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﬁˆÏ‹ÊÎﬂH›ﬁ˘ Â˘ ‹ÏË‹Î »ı ? </t>
+  </si>
+  <si>
+    <t>(3/6)</t>
+  </si>
+  <si>
+    <t>ﬁˆÏ‹ÊÎﬂH›‹Î_ Ë…Îﬂ˘ ‰Ê˝ ’Ëı·Î ÁÒ÷∞±ı Â˙ﬁ¿ÎÏÿ¿ ઋÏÊ±˘ﬁı ¤Î√‰÷ Á_¤‚ÎT›&lt;_ Ë÷&lt;_.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﬁÌ·¿oÃ‰HÎa±ı ﬁﬂﬁÎﬂÎ›HÎઋÏÊﬁı Â&lt;_ ¿èÎ&lt;_ ? </t>
+  </si>
+  <si>
+    <t>(7/14)</t>
+  </si>
+  <si>
+    <t>ﬁÌ·¿oÃ‰HÎa±ı ﬁﬂﬁÎﬂÎ›HÎઋÏÊﬁı ¿èÎ&lt;_ — ÷‹ı ‹ÎﬂÌ ¬Ò⁄ Áı‰Î ¿ﬂÌ »ı, ÷ı◊Ì ÷‹ÎﬂÌ ‹ÒÏ÷˝ﬁÌ V◊Î’ﬁÎ Ë&lt;_ ¤ﬂ÷¬_Õ‹Î_ …wﬂ ¿ﬂÌÂ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">÷‹ﬁı ¿o¥ Á_Â› ◊›˘. </t>
+  </si>
+  <si>
+    <t>(3/19-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÏﬁI›Îﬁ_ÿ V‰Î‹Ì </t>
+  </si>
+  <si>
+    <t>Â&lt;¿‹&lt;Ïﬁﬁı</t>
+  </si>
+  <si>
+    <t>±Î¬Ì ﬂÎ÷ …Î√Ìﬁı Â&lt;¿‹&lt;Ïﬁ±ı ·¬ı·Î_ «˙ÿ ’ÎﬁÎ_ Á‰Îﬂı ‹ËÎﬂÎ…ı ŒÎÕÌ ﬁÎA›Î_ I›Îﬂı.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¤√÷∞ ‹ËÎﬂÎ… ÁÎ◊ı ±ÎT›Î »ı. </t>
+  </si>
+  <si>
+    <t>(8/58)</t>
+  </si>
+  <si>
+    <t>ÿıÁÎ¥</t>
+  </si>
+  <si>
+    <t>ÿıÁÎ¥ﬁÎ ‘Î‹‹Î_ …‰Î◊Ì ±ÎÂÎ¤Î¥ﬁı ±ÁèÎ ±ÎCÎÎ÷ ·Î√‰Î◊Ì ±_÷ﬂ‹Î_ ◊˘ÕÌ ±ÂÎ_Ï÷ T›Î’Ì √¥ Ë÷Ì. I›Îﬂı ’_ÿﬂ Ïÿ‰Á ’»Ì ﬂÎhÎı ±ı¿ ‰Î√ı ÿıÁÎ¥ ÷ı‹ﬁÌ ﬁ∞¿ ±ÎT›˘ I›Îﬂı.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…Îı¥±ı ÷˘ ¬ﬂÎ, ¿ı‰Î ¤√‰Îﬁ »ı ! </t>
+  </si>
+  <si>
+    <t>(5/31,33)</t>
+  </si>
+  <si>
+    <t>…Îı⁄ﬁ</t>
+  </si>
+  <si>
+    <t>Á&lt;_ÿﬂﬁı</t>
+  </si>
+  <si>
+    <t>‹ËÎﬂÎ… ‰ﬂ÷Î·‹Î_ ⁄Î’&lt;∞¤Î¥ﬁÎ CÎıﬂ ±ÎT›Î I›Îﬂı …Îı⁄ﬁ ’√Ì ÷ı‹ﬁ˘ CÎ˘ÕÎ »˘ÕÌ ·Î‰‰Î ‹ÎÀı Á&lt;ÿﬂ ’√Ìﬁı ‰Î÷ ¿ﬂ÷Î_ ¿Ëı »ı.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lÌ∞‹ËÎﬂÎ…ı {ÌHÎÎ¤Î¥ﬁÌ ﬁﬁÎ‹Ì ઉ’ÎÕÌ. </t>
+  </si>
+  <si>
+    <t>(4/30)</t>
+  </si>
+  <si>
+    <t>¿‹‚ÂÌ ‰Î_{Îﬁ˘ ¬ÎÀ·˘ {ÌHÎÎ¤Î¥±ı ¬¤ı ·Ì‘˘ Ë÷˘, ÷ı◊Ì ‹ËÎﬂÎ…ı {ÌHÎÎ¤Î¥ﬁı ’HÎ ¬¤ı ·Ì‘Î ±ﬁı ¿‹‚ÂÌ ¤@÷ﬁ˘ ¬ÎÀ·˘ ·¥ﬁı {ÌHÎÎ¤Î¥ …ıÀ·Î_ Õ√·Î_ «ÎS›Î Ë÷Î ÷ı◊Ì ⁄‹HÎÎ_ Õ√·Î_ {ÌHÎÎ¤Î¥ﬁÌ ﬁﬁÎ‹Ì ઉ’ÎÕÌﬁı ‹ËÎﬂÎ… «ÎS›Î.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÿÎÿÎ¬Î«ﬂ ·Î¿ÕÎﬁ˘ ÷Î’ ¿ﬂÌ ‹ËÎﬂÎ… ’ÎÁı ·ÎT›Î. </t>
+  </si>
+  <si>
+    <t>(3/20)</t>
+  </si>
+  <si>
+    <t>Â&lt;¿‹&lt;Ïﬁ CÎı·Î ﬁÿÌ‹Î_ ‰Ëı·Ì Á‰Îﬂı ÃoÕÎ ’ÎHÎÌ◊Ì VﬁÎﬁ ¿ﬂÌﬁı ±ÎT›Î ÷ı◊Ì ‘˛Ò…÷Î Ë÷Î. ÷ı …Îı¥ﬁı ‹ËÎﬂÎ…ı ÿÎÿÎ¬Î«ﬂﬁı ’Ò»u&lt;_ ±Î ‰Ï‚›&lt;_ ﬁı ¬’ÎÀ ﬁÌÁﬂı ¿ı ﬁÏË ? ±Î◊Ì ‹ËÎﬂÎ…ﬁÌ ‹ﬂ∞ …ÎHÎÌ ·Î¿Õ&lt;_ ŒÕÎ‰Ì ÿÎÿÎ¬Î«ﬂ ·Î¿ÕÎﬁ˘ ÷Î’ ¿ﬂÌ ‹ËÎﬂÎ… ’ÎÁı ·ÎT›Î.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∞‰&lt;⁄Î ¿˘ﬁÌ ¤„@÷ ¿ﬂ÷Î_ Ë÷Î_ ? </t>
+  </si>
+  <si>
+    <t>∞‰&lt;⁄Î Á‰˝ ±‰÷ÎﬂﬁÎ ±‰÷ÎﬂÌ ’˛√À ’&lt;vÊ˘kÎ‹ﬁÎﬂÎ›HÎ (lÌ∞‹ËÎﬂÎ… ±◊‰Î ¤√‰Îﬁ V‰ÎÏ‹ﬁÎﬂÎ›HÎ)ﬁÌ ¤„@÷ ¿ﬂ÷Î_ Ë÷Î_.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÏÂﬂ˘ËÌﬁÎ ﬂÎ…Îﬁı Â˘ Ï‰«Îﬂ ◊›˘ ? </t>
+  </si>
+  <si>
+    <t>(1/1)</t>
+  </si>
+  <si>
+    <t>ÏÂﬂ˘ËÌﬁÎ ﬂÎ…Îﬁı Ï‰«Îﬂ ◊›˘ ¿ı - ﬂÎF›ﬁÎ ±Î ±HÎ‹Ò·Î ﬂ÷ﬁﬁ˘ ’˛¿ÎÂ Á‰˝hÎ ’˛Áﬂı ÷˘ ¿ı‰&lt;_ ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁄˛õÎﬁ_ÿ V‰Î‹Ì ‘Î‹‹Î_ @›Îﬂı ’‘Î›Î˝ ? (Á_‰÷, ‹ÎÁ ±ﬁı Ï÷Ï◊) </t>
+  </si>
+  <si>
+    <t>(1/9)</t>
+  </si>
+  <si>
+    <t>⁄˛õÎﬁ_ÿ V‰Î‹Ì Á_‰÷ 1888ﬁÎ …ıÃ Á&lt;ÿ 10ﬁÎ Ïÿ‰Áı ‘Î‹‹Î_ ’‘Î›Î˝.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lÌ∞‹ËÎﬂÎ…ı Â&lt;¿‹&lt;Ïﬁﬁı ÂÎﬁ&lt;_ ÿÎ÷HÎ ¿ﬂÎT›&lt;_ ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3/19) </t>
+  </si>
+  <si>
+    <t>lÌ∞‹ËÎﬂÎ…ı Â&lt;¿‹&lt;Ïﬁﬁı Á&lt;¬ÕÌﬁ&lt;_ ÿÎ÷HÎ ¿ﬂÎT›&lt;_.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¤@÷ﬂÎ… …Îı⁄ﬁ ’√Ì — ’Ò‰˝ı …Îı⁄ﬁ ’√Ìﬁı ‹ËÎﬂÎ…ı ±ËŸ ‰HÎa‰ıÂı ÿÂ˝ﬁ ±Î’ı·Î_, ’HÎ ±Á&lt;ﬂ¤Î‰ﬁı ·Ì‘ı ±ıﬁ&lt;_ Ï‰V‹ﬂHÎ ◊›ı·&lt;_. √&lt;…ﬂÎ÷‹Î_ I›Îﬂı …Îı⁄ﬁ ’√ÌﬁÌ ËÎ¿ ‰Î√÷Ì. </t>
+  </si>
+  <si>
+    <t>(5/31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áÿ˚√&lt;v Â&lt;¿Îﬁ_ÿ V‰Î‹Ì — ‹ËÎﬂÎ…ﬁÎ ±_÷‘Î˝ﬁ ’»Ì ÁIÁ_√‹Î__ Œﬂ÷Î_ Â&lt;¿‹&lt;Ïﬁ±ı ÂﬂÌﬂ ’&lt;p ﬁ ◊Î› ÷ıÀ·Î ‹ÎÀı ‹ËÎﬂÎ…ﬁı Ï‰ﬁ_÷Ì ¿ﬂÌﬁı ÷Î‰ ‹Î_B›˘. </t>
+  </si>
+  <si>
+    <t>(3/21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V‰Î‹Ì Ïﬁ√&lt;˝HÎÿÎÁ∞ — ›iÎ’&lt;vÊÿÎÁ∞ ﬂÎ…¿˘À‹Î_ Ï‰zÎP›ÎÁ ¿ﬂ÷Î Ë÷Î. V‰Î‹Ì …Î√Î ¤√÷ ÷ı ‰¬÷ı …^ﬁÎ√œ‹Î_ Ë÷Î. ±ıÀ·ı ›iÎ’&lt;vÊÿÎÁ∞ﬁÌ ઈE»Î◊Ì ‹&lt;_⁄¥ ‹_Ïÿﬂﬁ&lt;_ ¿˘ÃÎﬂÌ’b_ »˘ÕÌ …ıÃÎ ¤√÷ …^ﬁÎ√œ ±ÎT›Î. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áÿ˚√&lt;v ⁄˛õÎﬁ_ÿ V‰Î‹Ì — ·ÎÕ&lt;ÿÎﬁ∞±ı ‰÷ﬁ ’Î»Î Œﬂ÷Î_ ﬂV÷Î‹Î_ ‘‹Õ¿Î‹Î_ Ï‰’˛ ¤ટ્ટÎ«Î›˝ ’ÎÁı Á_V¿Ú÷ ±ﬁı Á_√Ì÷ﬁÌ ÏÂZÎÎ ·Ì‘Ì. </t>
   </si>
 </sst>
 </file>
@@ -960,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -978,149 +1197,201 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="1" spans="2:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>42189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3">
         <v>42189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3">
         <v>42189</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="G5" s="3">
-        <v>42189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+        <v>42067</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="81" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G6" s="3">
         <v>42067</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="81" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G7" s="3">
         <v>42067</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="G8" s="3">
-        <v>42067</v>
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="3">
+        <v>41824</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1150,27 +1421,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1184,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -1209,13 +1480,13 @@
     </row>
     <row r="5" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3">
         <v>42067</v>
@@ -1223,13 +1494,13 @@
     </row>
     <row r="6" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3">
         <v>42067</v>
@@ -1237,16 +1508,58 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3">
         <v>42067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="81" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41824</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1588,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -1284,10 +1597,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,7 +1619,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -1320,10 +1633,10 @@
     </row>
     <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
@@ -1348,7 +1661,7 @@
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1362,13 +1675,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3">
         <v>42067</v>
@@ -1376,13 +1689,13 @@
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="3">
         <v>42067</v>
@@ -1390,13 +1703,13 @@
     </row>
     <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="3">
         <v>42067</v>
@@ -1404,13 +1717,13 @@
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="3">
         <v>42067</v>
@@ -1418,16 +1731,86 @@
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="3">
         <v>42067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="3">
+        <v>41824</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1472,24 +1855,24 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>30</v>
@@ -1503,13 +1886,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>32</v>
@@ -1520,7 +1903,7 @@
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>36</v>
@@ -1529,7 +1912,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>34</v>
@@ -1540,19 +1923,19 @@
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" s="3">
         <v>42067</v>
@@ -1560,19 +1943,19 @@
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="3">
         <v>42067</v>
@@ -1580,22 +1963,82 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G7" s="3">
         <v>42067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="3">
+        <v>41824</v>
       </c>
     </row>
   </sheetData>
@@ -1605,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1623,7 +2066,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1632,10 +2075,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
@@ -1654,10 +2097,10 @@
     </row>
     <row r="3" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>40</v>
@@ -1668,10 +2111,10 @@
     </row>
     <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>53</v>
@@ -1682,16 +2125,44 @@
     </row>
     <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="3">
         <v>42067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="3">
+        <v>41824</v>
       </c>
     </row>
   </sheetData>
@@ -1701,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1719,7 +2190,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -1728,18 +2199,18 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -1764,10 +2235,10 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
@@ -1778,7 +2249,7 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -1792,13 +2263,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6" s="3">
         <v>42067</v>
@@ -1806,13 +2277,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="3">
         <v>42067</v>
@@ -1820,10 +2291,10 @@
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
@@ -1834,16 +2305,72 @@
     </row>
     <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="3">
         <v>42067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="3">
+        <v>41824</v>
       </c>
     </row>
   </sheetData>
@@ -1854,38 +2381,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="81.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>49</v>
@@ -1894,9 +2421,9 @@
         <v>42189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>53</v>
@@ -1918,7 +2445,7 @@
     </row>
     <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>50</v>
@@ -1927,20 +2454,20 @@
         <v>42189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="3">
         <v>42067</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>40</v>
@@ -1949,12 +2476,12 @@
         <v>42067</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8" s="3">
         <v>42067</v>
@@ -1962,13 +2489,57 @@
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="3">
         <v>42067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="3">
+        <v>41824</v>
       </c>
     </row>
   </sheetData>
@@ -1980,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1998,36 +2569,36 @@
   <sheetData>
     <row r="1" spans="2:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2038,7 +2609,7 @@
     </row>
     <row r="3" spans="2:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -2047,7 +2618,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -2058,16 +2629,16 @@
     </row>
     <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -2078,19 +2649,19 @@
     </row>
     <row r="5" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="3">
         <v>42067</v>
@@ -2098,16 +2669,16 @@
     </row>
     <row r="6" spans="2:7" ht="81" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G6" s="3">
         <v>42067</v>
@@ -2115,19 +2686,19 @@
     </row>
     <row r="7" spans="2:7" ht="81" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="G7" s="3">
         <v>42067</v>

--- a/YogiApekshit/App_Data/Pravesh-1 FAQ.xlsx
+++ b/YogiApekshit/App_Data/Pravesh-1 FAQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="P-1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="253">
   <si>
     <t xml:space="preserve">±‰÷ﬂHÎ˘ </t>
   </si>
@@ -377,11 +377,6 @@
     <t>(9/16)</t>
   </si>
   <si>
-    <t>ﬂÎ…ÎﬁÎ ⁄ı ﬁ˘¿ﬂ˘±ı ‰HÎaﬁÌ ‹›Î˝ÿÎ ﬂÎA›Î ‰√ﬂ ±ı¿ ’ZÎÌﬁÎ …˘ıÕÎ ઉ’ﬂ √˘‚Ì±˘ »˘ÕÌﬁı ⁄_ﬁı ’ZÎÌ±˘ ‰HÎa ÁÎ‹ı
-ÿ›Î‹HÎÌ ±Î_¬˘ ’ﬂ˘‰Ìﬁı ‹ﬂÌ √›Î. ‰HÎa±ı ÷ı‹ﬁı ÏÿT› √Ï÷ ±Î’Ì. ±Î¬˘ Ïÿ‰Á ઉ’‰ÎÁ ¿›˘Û ±ﬁı ‹ﬁ‹Î_ ÁËı…ı 
-Á_¿S’ ◊¥ √›˘ ¿ı “⁄Y›&lt;_  ±Î ÂËıﬂ, «Î·˘ «Î·Ì ﬁÌ¿‚Ì±ı ! ÷ı ÁÎ◊ı … ·Î√ı·Ì ±Î√‹Î_ ⁄_ﬁı ﬁ˘¿ﬂ˘ ⁄‚Ì √›Î.</t>
-  </si>
-  <si>
     <t>(33/64)</t>
   </si>
   <si>
@@ -800,6 +795,14 @@
   </si>
   <si>
     <t xml:space="preserve">Áÿ˚√&lt;v ⁄˛õÎﬁ_ÿ V‰Î‹Ì — ·ÎÕ&lt;ÿÎﬁ∞±ı ‰÷ﬁ ’Î»Î Œﬂ÷Î_ ﬂV÷Î‹Î_ ‘‹Õ¿Î‹Î_ Ï‰’˛ ¤ટ્ટÎ«Î›˝ ’ÎÁı Á_V¿Ú÷ ±ﬁı Á_√Ì÷ﬁÌ ÏÂZÎÎ ·Ì‘Ì. </t>
+  </si>
+  <si>
+    <t>Ans</t>
+  </si>
+  <si>
+    <t>ﬂÎ…ÎﬁÎ ⁄ı ﬁ˘¿ﬂ˘±ı ‰HÎaﬁÌ ‹›Î˝ÿÎ ﬂÎA›Î ‰√ﬂ ±ı¿ ’ZÎÌﬁÎ …˘ıÕÎ ઉ’ﬂ √˘‚Ì±˘ »˘ÕÌﬁı ⁄_ﬁı ’ZÎÌ±˘ ‰HÎa ÁÎ‹ı
+ÿ›Î‹HÎÌ ±Î_¬˘ ’ﬂ˘‰Ìﬁı ‹ﬂÌ √›Î. ‰HÎa±ı ÷ı‹ﬁı ÏÿT› √Ï÷ ±Î’Ì. ±Î¬˘ Ïÿ‰Á ઉ’‰ÎÁ ¿›˘Û ±ﬁı ‹ﬁ‹Î_ ÁËı…ı 
+Á_¿S’ ◊¥ √›˘ ¿ı ⁄Y›&lt;_  ±Î ÂËıﬂ, «Î·˘ «Î·Ì ﬁÌ¿‚Ì±ı ! ÷ı ÁÎ◊ı … ·Î√ı·Ì ±Î√‹Î_ ⁄_ﬁı ﬁ˘¿ﬂ˘ ⁄‚Ì √›Î.</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1199,22 +1202,22 @@
   <sheetData>
     <row r="1" spans="2:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -1336,19 +1339,19 @@
     </row>
     <row r="8" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="G8" s="3">
         <v>41824</v>
@@ -1356,19 +1359,19 @@
     </row>
     <row r="9" spans="2:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="G9" s="3">
         <v>41824</v>
@@ -1376,19 +1379,19 @@
     </row>
     <row r="10" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="G10" s="3">
         <v>41824</v>
@@ -1402,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1436,29 +1439,30 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42189</v>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>42189</v>
@@ -1466,99 +1470,113 @@
     </row>
     <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>42189</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>42189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="81" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E5" s="3">
-        <v>42067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="3">
         <v>42067</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3">
         <v>42067</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="3">
-        <v>41824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E9" s="3">
         <v>41824</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="81" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="3">
         <v>41824</v>
       </c>
     </row>
@@ -1675,13 +1693,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E7" s="3">
         <v>42067</v>
@@ -1689,13 +1707,13 @@
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E8" s="3">
         <v>42067</v>
@@ -1703,13 +1721,13 @@
     </row>
     <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E9" s="3">
         <v>42067</v>
@@ -1717,13 +1735,13 @@
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E10" s="3">
         <v>42067</v>
@@ -1731,13 +1749,13 @@
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E11" s="3">
         <v>42067</v>
@@ -1745,13 +1763,13 @@
     </row>
     <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E12" s="3">
         <v>41824</v>
@@ -1759,13 +1777,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E13" s="3">
         <v>41824</v>
@@ -1773,13 +1791,13 @@
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E14" s="3">
         <v>41824</v>
@@ -1787,13 +1805,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E15" s="3">
         <v>41824</v>
@@ -1801,13 +1819,13 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E16" s="3">
         <v>41824</v>
@@ -1923,19 +1941,19 @@
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="G5" s="3">
         <v>42067</v>
@@ -1943,19 +1961,19 @@
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="G6" s="3">
         <v>42067</v>
@@ -1963,19 +1981,19 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="G7" s="3">
         <v>42067</v>
@@ -1983,19 +2001,19 @@
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="G8" s="3">
         <v>41824</v>
@@ -2003,19 +2021,19 @@
     </row>
     <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="G9" s="3">
         <v>41824</v>
@@ -2023,19 +2041,19 @@
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="G10" s="3">
         <v>41824</v>
@@ -2111,10 +2129,10 @@
     </row>
     <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>53</v>
@@ -2125,13 +2143,13 @@
     </row>
     <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E5" s="3">
         <v>42067</v>
@@ -2139,13 +2157,13 @@
     </row>
     <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="E6" s="3">
         <v>41824</v>
@@ -2153,13 +2171,13 @@
     </row>
     <row r="7" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="E7" s="3">
         <v>41824</v>
@@ -2263,13 +2281,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="E6" s="3">
         <v>42067</v>
@@ -2277,13 +2295,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="3">
         <v>42067</v>
@@ -2291,10 +2309,10 @@
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
@@ -2305,13 +2323,13 @@
     </row>
     <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E9" s="3">
         <v>42067</v>
@@ -2319,13 +2337,13 @@
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="3">
         <v>41824</v>
@@ -2333,13 +2351,13 @@
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="E11" s="3">
         <v>41824</v>
@@ -2347,13 +2365,13 @@
     </row>
     <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="E12" s="3">
         <v>41824</v>
@@ -2361,13 +2379,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="E13" s="3">
         <v>41824</v>
@@ -2383,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -2456,10 +2474,10 @@
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D6" s="3">
         <v>42067</v>
@@ -2467,7 +2485,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>40</v>
@@ -2478,10 +2496,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D8" s="3">
         <v>42067</v>
@@ -2489,10 +2507,10 @@
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D9" s="3">
         <v>42067</v>
@@ -2500,10 +2518,10 @@
     </row>
     <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D10" s="3">
         <v>41824</v>
@@ -2511,10 +2529,10 @@
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D11" s="3">
         <v>41824</v>
@@ -2522,7 +2540,7 @@
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>34</v>
@@ -2533,10 +2551,10 @@
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="3">
         <v>41824</v>
@@ -2569,22 +2587,22 @@
   <sheetData>
     <row r="1" spans="2:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="40.5" x14ac:dyDescent="0.25">
